--- a/web_ces/indicadores/SFE-XMOI_out.xlsx
+++ b/web_ces/indicadores/SFE-XMOI_out.xlsx
@@ -21120,13 +21120,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59C368A5-42CD-4E8C-8148-69ECB8F2EE2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E810AED-8601-4FA0-86F6-C05F285B7133}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DE0E2E2-4FCD-4928-8910-C2EAFC48B787}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50F5C5DC-87D0-4E78-9832-BCDA823F28E6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F2ADB3B-916E-423F-BBD7-4F97764190B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DB22B5B-288A-4956-8128-83A62A8FAD9C}"/>
 </file>